--- a/data/trans_orig/P27_1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P27_1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE359D16-CBF7-4938-B537-D57136F5137D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68667EF4-3AAB-4795-B67C-5C3FEABD015F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3FFDDBE-48E7-4E83-9EA6-FBC9A4B0C22D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5A1DFA6-3FDE-4636-AF63-E52415A52C60}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="573">
   <si>
     <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2007 (Tasa respuesta: 94,99%)</t>
   </si>
@@ -95,1663 +95,1666 @@
     <t>9,47%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>6,35%</t>
   </si>
   <si>
-    <t>5,48%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>De 1 a 4 horas</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>Menos de una hora</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2012 (Tasa respuesta: 96,74%)</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2015 (Tasa respuesta: 97,66%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2023 (Tasa respuesta: 99,59%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>De 1 a 4 horas</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>Menos de una hora</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
   </si>
   <si>
     <t>11,88%</t>
   </si>
   <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2012 (Tasa respuesta: 96,74%)</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
   </si>
   <si>
     <t>81,59%</t>
   </si>
   <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2015 (Tasa respuesta: 97,66%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2023 (Tasa respuesta: 99,59%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
   </si>
   <si>
     <t>10,14%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
   <si>
     <t>86,19%</t>
   </si>
   <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
   </si>
   <si>
     <t>84,65%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
   </si>
   <si>
     <t>85,7%</t>
@@ -2166,7 +2169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3BC63F-F267-42E8-99A9-B40EE2FC6167}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B45B87A-BFD6-47D8-9453-39F024E0B117}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2975,10 +2978,10 @@
         <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -2987,13 +2990,13 @@
         <v>41912</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3011,13 @@
         <v>103574</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H18" s="7">
         <v>66</v>
@@ -3023,13 +3026,13 @@
         <v>67535</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>167</v>
@@ -3038,13 +3041,13 @@
         <v>171108</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3062,13 @@
         <v>246154</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H19" s="7">
         <v>240</v>
@@ -3074,13 +3077,13 @@
         <v>255712</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M19" s="7">
         <v>473</v>
@@ -3089,13 +3092,13 @@
         <v>501866</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3113,13 @@
         <v>152735</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>96</v>
@@ -3125,13 +3128,13 @@
         <v>100983</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>242</v>
@@ -3140,13 +3143,13 @@
         <v>253718</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,7 +3253,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3268,13 @@
         <v>259906</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="H23" s="7">
         <v>150</v>
@@ -3280,13 +3283,13 @@
         <v>154315</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>400</v>
@@ -3295,13 +3298,13 @@
         <v>414221</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3319,13 @@
         <v>653068</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>456</v>
@@ -3331,13 +3334,13 @@
         <v>467786</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>1094</v>
@@ -3346,13 +3349,13 @@
         <v>1120854</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3370,13 @@
         <v>1212197</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>1281</v>
@@ -3382,13 +3385,13 @@
         <v>1316075</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>2461</v>
@@ -3397,13 +3400,13 @@
         <v>2528273</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3421,13 @@
         <v>988542</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>1245</v>
@@ -3433,13 +3436,13 @@
         <v>1272436</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>2230</v>
@@ -3448,13 +3451,13 @@
         <v>2260978</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,7 +3513,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3529,7 +3532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91851F6E-8C22-4E00-902D-121EBD5B7C60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF06345-C0B0-49C7-98BF-3453EC6DDD70}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3546,7 +3549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3704,13 +3707,13 @@
         <v>19117</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3719,13 +3722,13 @@
         <v>15273</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -3734,13 +3737,13 @@
         <v>34389</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,10 +3758,10 @@
         <v>23025</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>185</v>
@@ -3791,7 +3794,7 @@
         <v>190</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>191</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3809,13 @@
         <v>70908</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H7" s="7">
         <v>68</v>
@@ -3821,13 +3824,13 @@
         <v>73832</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>135</v>
@@ -3836,13 +3839,13 @@
         <v>144740</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3860,13 @@
         <v>845099</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>1096</v>
@@ -3872,13 +3875,13 @@
         <v>1176568</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>1883</v>
@@ -3887,13 +3890,13 @@
         <v>2021667</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,7 +3970,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4012,13 +4015,13 @@
         <v>43620</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -4027,13 +4030,13 @@
         <v>34197</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>77</v>
@@ -4042,10 +4045,10 @@
         <v>77816</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>218</v>
@@ -4063,13 +4066,13 @@
         <v>111644</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="H12" s="7">
         <v>78</v>
@@ -4201,7 +4204,7 @@
         <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,7 +4293,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4305,7 +4308,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4323,13 @@
         <v>4199</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -4335,13 +4338,13 @@
         <v>5712</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -4350,13 +4353,13 @@
         <v>9910</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4374,13 @@
         <v>13195</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -4386,13 +4389,13 @@
         <v>23452</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -4401,13 +4404,13 @@
         <v>36647</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4425,13 @@
         <v>86541</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -4437,13 +4440,13 @@
         <v>59299</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>137</v>
@@ -4452,13 +4455,13 @@
         <v>145840</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4476,13 @@
         <v>364532</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>313</v>
@@ -4488,13 +4491,13 @@
         <v>347888</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M20" s="7">
         <v>638</v>
@@ -4503,13 +4506,13 @@
         <v>712421</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,7 +4616,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4631,13 @@
         <v>66935</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>53</v>
@@ -4643,13 +4646,13 @@
         <v>55181</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>119</v>
@@ -4658,13 +4661,13 @@
         <v>122116</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4682,13 @@
         <v>147864</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H24" s="7">
         <v>129</v>
@@ -4694,13 +4697,13 @@
         <v>135610</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M24" s="7">
         <v>269</v>
@@ -4709,13 +4712,13 @@
         <v>283475</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4733,13 @@
         <v>440180</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H25" s="7">
         <v>346</v>
@@ -4745,13 +4748,13 @@
         <v>368528</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M25" s="7">
         <v>772</v>
@@ -4760,13 +4763,13 @@
         <v>808708</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,13 +4784,13 @@
         <v>2669067</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H26" s="7">
         <v>2645</v>
@@ -4796,13 +4799,13 @@
         <v>2867553</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M26" s="7">
         <v>5126</v>
@@ -4811,13 +4814,13 @@
         <v>5536620</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,7 +4876,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4892,7 +4895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42600B77-8053-4525-8138-1A27F6A34FEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1904AD83-7C5A-4A38-804B-847DA20CDB5D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4909,7 +4912,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5022,7 +5025,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5037,7 +5040,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5067,13 +5070,13 @@
         <v>19335</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>142</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -5082,13 +5085,13 @@
         <v>21859</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -5097,13 +5100,13 @@
         <v>41193</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5121,13 @@
         <v>40640</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -5133,13 +5136,13 @@
         <v>35740</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="M6" s="7">
         <v>73</v>
@@ -5148,13 +5151,13 @@
         <v>76380</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5172,13 @@
         <v>94131</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>68</v>
@@ -5184,13 +5187,13 @@
         <v>74889</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>157</v>
@@ -5199,13 +5202,13 @@
         <v>169020</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5223,13 @@
         <v>578754</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>736</v>
@@ -5235,13 +5238,13 @@
         <v>822760</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>1330</v>
@@ -5250,13 +5253,13 @@
         <v>1401513</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,7 +5333,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5345,7 +5348,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5360,7 +5363,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5378,13 @@
         <v>63257</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="H11" s="7">
         <v>49</v>
@@ -5390,7 +5393,7 @@
         <v>51115</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>357</v>
@@ -5411,7 +5414,7 @@
         <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>188</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,10 +5513,10 @@
         <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5531,13 @@
         <v>1400276</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>1314</v>
@@ -5543,13 +5546,13 @@
         <v>1371512</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>2641</v>
@@ -5558,13 +5561,13 @@
         <v>2771788</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,7 +5641,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5653,7 +5656,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5668,7 +5671,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5686,13 @@
         <v>1991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -5698,13 +5701,13 @@
         <v>10971</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>253</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>393</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -5713,13 +5716,13 @@
         <v>12962</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5737,13 @@
         <v>22263</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>397</v>
+        <v>284</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -5749,13 +5752,13 @@
         <v>26814</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -5764,13 +5767,13 @@
         <v>49077</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>256</v>
+        <v>398</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>293</v>
+        <v>399</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5788,13 @@
         <v>89121</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -5800,13 +5803,13 @@
         <v>78891</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>159</v>
@@ -5815,13 +5818,13 @@
         <v>168012</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5839,13 @@
         <v>419192</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H20" s="7">
         <v>401</v>
@@ -5851,13 +5854,13 @@
         <v>420320</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>787</v>
@@ -5866,13 +5869,13 @@
         <v>839512</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,7 +5979,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +5994,13 @@
         <v>84583</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H23" s="7">
         <v>80</v>
@@ -6006,13 +6009,13 @@
         <v>83945</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>357</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="M23" s="7">
         <v>156</v>
@@ -6024,10 +6027,10 @@
         <v>186</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6045,13 @@
         <v>223443</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H24" s="7">
         <v>194</v>
@@ -6057,13 +6060,13 @@
         <v>202269</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M24" s="7">
         <v>401</v>
@@ -6072,13 +6075,13 @@
         <v>425712</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>431</v>
+        <v>192</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6096,13 @@
         <v>600627</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>513</v>
@@ -6108,13 +6111,13 @@
         <v>536367</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>233</v>
+        <v>434</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M25" s="7">
         <v>1073</v>
@@ -6123,13 +6126,13 @@
         <v>1136994</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6147,13 @@
         <v>2398223</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H26" s="7">
         <v>2451</v>
@@ -6159,13 +6162,13 @@
         <v>2614590</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="M26" s="7">
         <v>4758</v>
@@ -6174,13 +6177,13 @@
         <v>5012814</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,7 +6239,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6255,7 +6258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3E409A-6C9E-49E2-B384-56B5C3653269}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E18954-C664-4564-A263-9BB5F4A62CA4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6272,7 +6275,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6385,7 +6388,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6400,7 +6403,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6430,13 +6433,13 @@
         <v>11487</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>321</v>
+        <v>451</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -6445,13 +6448,13 @@
         <v>9509</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -6460,13 +6463,13 @@
         <v>20996</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>460</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,13 +6484,13 @@
         <v>26363</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>324</v>
+        <v>457</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>220</v>
+        <v>458</v>
       </c>
       <c r="H6" s="7">
         <v>31</v>
@@ -6496,13 +6499,13 @@
         <v>17576</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M6" s="7">
         <v>58</v>
@@ -6511,13 +6514,13 @@
         <v>43939</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,13 +6535,13 @@
         <v>54407</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="H7" s="7">
         <v>72</v>
@@ -6547,13 +6550,13 @@
         <v>47614</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
@@ -6562,13 +6565,13 @@
         <v>102020</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,13 +6586,13 @@
         <v>448617</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="H8" s="7">
         <v>1302</v>
@@ -6598,13 +6601,13 @@
         <v>754859</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="M8" s="7">
         <v>1894</v>
@@ -6613,13 +6616,13 @@
         <v>1203477</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,7 +6696,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6708,7 +6711,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6723,7 +6726,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6738,13 +6741,13 @@
         <v>15488</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>484</v>
+        <v>251</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -6753,13 +6756,13 @@
         <v>21573</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -6768,13 +6771,13 @@
         <v>37061</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,13 +6792,13 @@
         <v>122479</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>491</v>
+        <v>335</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>225</v>
+        <v>489</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>492</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>139</v>
@@ -6804,13 +6807,13 @@
         <v>104026</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>494</v>
+        <v>141</v>
       </c>
       <c r="M12" s="7">
         <v>246</v>
@@ -6819,13 +6822,13 @@
         <v>226505</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>495</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>107</v>
+        <v>290</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,13 +6843,13 @@
         <v>255984</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>492</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H13" s="7">
         <v>348</v>
@@ -6855,13 +6858,13 @@
         <v>232393</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>340</v>
+        <v>496</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="M13" s="7">
         <v>589</v>
@@ -6870,13 +6873,13 @@
         <v>488377</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,13 +6894,13 @@
         <v>1760640</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H14" s="7">
         <v>2398</v>
@@ -6906,13 +6909,13 @@
         <v>1882926</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M14" s="7">
         <v>4017</v>
@@ -6921,13 +6924,13 @@
         <v>3643566</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7001,7 +7004,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7016,7 +7019,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7031,7 +7034,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7052,7 +7055,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -7061,13 +7064,13 @@
         <v>4227</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -7076,13 +7079,13 @@
         <v>7229</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>511</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>182</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,13 +7100,13 @@
         <v>24985</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -7112,13 +7115,13 @@
         <v>22133</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>391</v>
+        <v>518</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>256</v>
+        <v>519</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -7127,13 +7130,13 @@
         <v>47119</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7148,13 +7151,13 @@
         <v>60209</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="H19" s="7">
         <v>92</v>
@@ -7163,13 +7166,13 @@
         <v>63303</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="M19" s="7">
         <v>154</v>
@@ -7178,13 +7181,13 @@
         <v>123513</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7199,13 +7202,13 @@
         <v>580146</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="H20" s="7">
         <v>873</v>
@@ -7214,13 +7217,13 @@
         <v>621058</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="M20" s="7">
         <v>1466</v>
@@ -7229,13 +7232,13 @@
         <v>1201204</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,7 +7327,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7339,7 +7342,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7354,13 +7357,13 @@
         <v>29978</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>543</v>
+        <v>452</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H23" s="7">
         <v>42</v>
@@ -7369,13 +7372,13 @@
         <v>35309</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M23" s="7">
         <v>79</v>
@@ -7384,13 +7387,13 @@
         <v>65287</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,13 +7408,13 @@
         <v>173827</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="H24" s="7">
         <v>199</v>
@@ -7420,13 +7423,13 @@
         <v>143735</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M24" s="7">
         <v>355</v>
@@ -7459,10 +7462,10 @@
         <v>556</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="H25" s="7">
         <v>512</v>
@@ -7471,13 +7474,13 @@
         <v>343310</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M25" s="7">
         <v>871</v>
@@ -7540,10 +7543,10 @@
         <v>570</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>571</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7599,7 +7602,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P27_1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P27_1-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68667EF4-3AAB-4795-B67C-5C3FEABD015F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4CF2885-5BCC-42F2-BFF4-AD2D2340D12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5A1DFA6-3FDE-4636-AF63-E52415A52C60}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{25415220-C121-4CF6-B8DD-AC48CA90A2ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="566">
   <si>
     <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2007 (Tasa respuesta: 94,99%)</t>
   </si>
@@ -95,16 +95,16 @@
     <t>9,47%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>2,98%</t>
+    <t>2,99%</t>
   </si>
   <si>
     <t>5,15%</t>
@@ -116,1563 +116,1545 @@
     <t>5,39%</t>
   </si>
   <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>De 1 a 4 horas</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>Menos de una hora</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>De 1 a 4 horas</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>Menos de una hora</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2012 (Tasa respuesta: 96,74%)</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2016 (Tasa respuesta: 97,66%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
   </si>
   <si>
     <t>8,38%</t>
   </si>
   <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2023 (Tasa respuesta: 99,59%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
   </si>
   <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2012 (Tasa respuesta: 96,74%)</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2015 (Tasa respuesta: 97,66%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2023 (Tasa respuesta: 99,59%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
     <t>0,91%</t>
   </si>
   <si>
@@ -1683,9 +1665,6 @@
   </si>
   <si>
     <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
   </si>
   <si>
     <t>6,06%</t>
@@ -2169,7 +2148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B45B87A-BFD6-47D8-9453-39F024E0B117}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBCBED7-9CA0-410A-81BF-6024EBD617C5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2826,7 +2805,7 @@
         <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="M14" s="7">
         <v>931</v>
@@ -2835,13 +2814,13 @@
         <v>944062</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,7 +2876,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2915,7 +2894,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2930,7 +2909,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2945,7 +2924,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2939,13 @@
         <v>21719</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -2975,10 +2954,10 @@
         <v>20193</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>105</v>
@@ -3274,7 +3253,7 @@
         <v>138</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>150</v>
@@ -3283,13 +3262,13 @@
         <v>154315</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M23" s="7">
         <v>400</v>
@@ -3298,13 +3277,13 @@
         <v>414221</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3298,13 @@
         <v>653068</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>456</v>
@@ -3334,13 +3313,13 @@
         <v>467786</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>1094</v>
@@ -3349,13 +3328,13 @@
         <v>1120854</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,7 +3511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF06345-C0B0-49C7-98BF-3453EC6DDD70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDD4F95-EB42-429E-9DB6-2038B539713D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3662,7 +3641,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3713,7 +3692,7 @@
         <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3722,13 +3701,13 @@
         <v>15273</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -3737,13 +3716,13 @@
         <v>34389</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3737,13 @@
         <v>23025</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H6" s="7">
         <v>31</v>
@@ -3773,13 +3752,13 @@
         <v>32427</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -3788,13 +3767,13 @@
         <v>55452</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +4045,13 @@
         <v>111644</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H12" s="7">
         <v>78</v>
@@ -4260,7 +4239,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4278,7 +4257,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4359,7 +4338,7 @@
         <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,10 +4353,10 @@
         <v>13195</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>257</v>
@@ -4410,7 +4389,7 @@
         <v>262</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>263</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4404,13 @@
         <v>86541</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -4440,13 +4419,13 @@
         <v>59299</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>137</v>
@@ -4455,13 +4434,13 @@
         <v>145840</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4455,13 @@
         <v>364532</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>313</v>
@@ -4491,13 +4470,13 @@
         <v>347888</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M20" s="7">
         <v>638</v>
@@ -4506,13 +4485,13 @@
         <v>712421</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4610,13 @@
         <v>66935</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>53</v>
@@ -4646,13 +4625,13 @@
         <v>55181</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>119</v>
@@ -4661,13 +4640,13 @@
         <v>122116</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>179</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>182</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4661,13 @@
         <v>147864</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H24" s="7">
         <v>129</v>
@@ -4697,13 +4676,13 @@
         <v>135610</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M24" s="7">
         <v>269</v>
@@ -4712,13 +4691,13 @@
         <v>283475</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +4712,13 @@
         <v>440180</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="H25" s="7">
         <v>346</v>
@@ -4748,13 +4727,13 @@
         <v>368528</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>772</v>
@@ -4763,13 +4742,13 @@
         <v>808708</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,13 +4763,13 @@
         <v>2669067</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H26" s="7">
         <v>2645</v>
@@ -4799,13 +4778,13 @@
         <v>2867553</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M26" s="7">
         <v>5126</v>
@@ -4814,13 +4793,13 @@
         <v>5536620</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,7 +4874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1904AD83-7C5A-4A38-804B-847DA20CDB5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE7C9E2-81A1-4756-A592-CBA0716AE45D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4912,7 +4891,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5025,7 +5004,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5070,13 +5049,13 @@
         <v>19335</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>321</v>
+        <v>141</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -5085,13 +5064,13 @@
         <v>21859</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -5100,13 +5079,13 @@
         <v>41193</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>325</v>
+        <v>101</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5100,13 @@
         <v>40640</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>328</v>
+        <v>142</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -5136,13 +5115,13 @@
         <v>35740</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M6" s="7">
         <v>73</v>
@@ -5151,13 +5130,13 @@
         <v>76380</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>65</v>
+        <v>327</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5151,13 @@
         <v>94131</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>68</v>
@@ -5187,13 +5166,13 @@
         <v>74889</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="M7" s="7">
         <v>157</v>
@@ -5202,13 +5181,13 @@
         <v>169020</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5202,13 @@
         <v>578754</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H8" s="7">
         <v>736</v>
@@ -5238,13 +5217,13 @@
         <v>822760</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="M8" s="7">
         <v>1330</v>
@@ -5253,13 +5232,13 @@
         <v>1401513</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,7 +5312,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5348,7 +5327,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5363,7 +5342,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5357,13 @@
         <v>63257</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>349</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H11" s="7">
         <v>49</v>
@@ -5393,13 +5372,13 @@
         <v>51115</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>105</v>
@@ -5408,13 +5387,13 @@
         <v>114373</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5408,13 @@
         <v>160539</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H12" s="7">
         <v>134</v>
@@ -5444,13 +5423,13 @@
         <v>139716</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M12" s="7">
         <v>283</v>
@@ -5459,13 +5438,13 @@
         <v>300255</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>367</v>
+        <v>199</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5459,13 @@
         <v>417376</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>369</v>
@@ -5495,13 +5474,13 @@
         <v>382586</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>757</v>
@@ -5510,13 +5489,13 @@
         <v>799962</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5510,13 @@
         <v>1400276</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="H14" s="7">
         <v>1314</v>
@@ -5546,13 +5525,13 @@
         <v>1371512</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>2641</v>
@@ -5561,13 +5540,13 @@
         <v>2771788</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,7 +5602,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5641,7 +5620,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5656,7 +5635,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5671,7 +5650,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5665,13 @@
         <v>1991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -5701,13 +5680,13 @@
         <v>10971</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>253</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>185</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -5719,10 +5698,10 @@
         <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5716,13 @@
         <v>22263</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -5752,13 +5731,13 @@
         <v>26814</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>397</v>
+        <v>66</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -5767,13 +5746,13 @@
         <v>49077</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5767,13 @@
         <v>89121</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -5803,13 +5782,13 @@
         <v>78891</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M19" s="7">
         <v>159</v>
@@ -5818,13 +5797,13 @@
         <v>168012</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>232</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5818,13 @@
         <v>419192</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H20" s="7">
         <v>401</v>
@@ -5854,13 +5833,13 @@
         <v>420320</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>787</v>
@@ -5869,13 +5848,13 @@
         <v>839512</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +5973,13 @@
         <v>84583</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>419</v>
+        <v>283</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>392</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H23" s="7">
         <v>80</v>
@@ -6009,13 +5988,13 @@
         <v>83945</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>325</v>
+        <v>101</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>421</v>
+        <v>351</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="M23" s="7">
         <v>156</v>
@@ -6024,13 +6003,13 @@
         <v>168528</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>423</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,13 +6024,13 @@
         <v>223443</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>425</v>
+        <v>62</v>
       </c>
       <c r="H24" s="7">
         <v>194</v>
@@ -6060,13 +6039,13 @@
         <v>202269</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="M24" s="7">
         <v>401</v>
@@ -6075,13 +6054,13 @@
         <v>425712</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>192</v>
+        <v>421</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6075,13 @@
         <v>600627</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="H25" s="7">
         <v>513</v>
@@ -6111,13 +6090,13 @@
         <v>536367</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M25" s="7">
         <v>1073</v>
@@ -6126,13 +6105,13 @@
         <v>1136994</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6126,13 @@
         <v>2398223</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H26" s="7">
         <v>2451</v>
@@ -6162,28 +6141,28 @@
         <v>2614590</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M26" s="7">
         <v>4758</v>
       </c>
       <c r="N26" s="7">
-        <v>5012814</v>
+        <v>5012813</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,7 +6204,7 @@
         <v>6388</v>
       </c>
       <c r="N27" s="7">
-        <v>6744048</v>
+        <v>6744047</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>56</v>
@@ -6258,7 +6237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E18954-C664-4564-A263-9BB5F4A62CA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCE6245-BA00-4742-AE3B-EDEEB7D09D07}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6275,7 +6254,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6388,7 +6367,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6403,7 +6382,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6433,13 +6412,13 @@
         <v>11487</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -6448,13 +6427,13 @@
         <v>9509</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -6463,13 +6442,13 @@
         <v>20996</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>255</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6484,13 +6463,13 @@
         <v>26363</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H6" s="7">
         <v>31</v>
@@ -6499,13 +6478,13 @@
         <v>17576</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="M6" s="7">
         <v>58</v>
@@ -6514,13 +6493,13 @@
         <v>43939</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6535,13 +6514,13 @@
         <v>54407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H7" s="7">
         <v>72</v>
@@ -6550,13 +6529,13 @@
         <v>47614</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
@@ -6565,13 +6544,13 @@
         <v>102020</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>400</v>
+        <v>464</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,13 +6565,13 @@
         <v>448617</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H8" s="7">
         <v>1302</v>
@@ -6601,13 +6580,13 @@
         <v>754859</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M8" s="7">
         <v>1894</v>
@@ -6616,13 +6595,13 @@
         <v>1203477</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6696,7 +6675,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6711,7 +6690,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6726,7 +6705,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,13 +6720,13 @@
         <v>15488</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>481</v>
+        <v>177</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>251</v>
+        <v>477</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -6756,13 +6735,13 @@
         <v>21573</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -6771,13 +6750,13 @@
         <v>37061</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,10 +6771,10 @@
         <v>122479</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>335</v>
+        <v>485</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>30</v>
@@ -6807,13 +6786,13 @@
         <v>104026</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>297</v>
+        <v>488</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="M12" s="7">
         <v>246</v>
@@ -6825,10 +6804,10 @@
         <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>491</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6843,13 +6822,13 @@
         <v>255984</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="H13" s="7">
         <v>348</v>
@@ -6858,13 +6837,13 @@
         <v>232393</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="M13" s="7">
         <v>589</v>
@@ -6873,13 +6852,13 @@
         <v>488377</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,13 +6873,13 @@
         <v>1760640</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="H14" s="7">
         <v>2398</v>
@@ -6909,13 +6888,13 @@
         <v>1882926</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>505</v>
+        <v>309</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M14" s="7">
         <v>4017</v>
@@ -6924,13 +6903,13 @@
         <v>3643566</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6986,7 +6965,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7004,7 +6983,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7019,7 +6998,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7049,13 +7028,13 @@
         <v>3003</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -7064,13 +7043,13 @@
         <v>4227</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -7079,13 +7058,13 @@
         <v>7229</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7100,13 +7079,13 @@
         <v>24985</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -7115,13 +7094,13 @@
         <v>22133</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>517</v>
+        <v>107</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>519</v>
+        <v>225</v>
       </c>
       <c r="M18" s="7">
         <v>51</v>
@@ -7130,13 +7109,13 @@
         <v>47119</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,13 +7130,13 @@
         <v>60209</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="H19" s="7">
         <v>92</v>
@@ -7166,13 +7145,13 @@
         <v>63303</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>527</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
         <v>154</v>
@@ -7181,13 +7160,13 @@
         <v>123513</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>367</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7202,13 +7181,13 @@
         <v>580146</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H20" s="7">
         <v>873</v>
@@ -7217,13 +7196,13 @@
         <v>621058</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M20" s="7">
         <v>1466</v>
@@ -7232,13 +7211,13 @@
         <v>1201204</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7327,7 +7306,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7342,7 +7321,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,13 +7336,13 @@
         <v>29978</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="H23" s="7">
         <v>42</v>
@@ -7372,13 +7351,13 @@
         <v>35309</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>393</v>
+        <v>537</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>543</v>
+        <v>384</v>
       </c>
       <c r="M23" s="7">
         <v>79</v>
@@ -7387,13 +7366,13 @@
         <v>65287</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7408,13 +7387,13 @@
         <v>173827</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>548</v>
+        <v>195</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H24" s="7">
         <v>199</v>
@@ -7423,13 +7402,13 @@
         <v>143735</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="M24" s="7">
         <v>355</v>
@@ -7438,13 +7417,13 @@
         <v>317562</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,13 +7438,13 @@
         <v>370600</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="H25" s="7">
         <v>512</v>
@@ -7474,13 +7453,13 @@
         <v>343310</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="M25" s="7">
         <v>871</v>
@@ -7489,13 +7468,13 @@
         <v>713910</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,13 +7489,13 @@
         <v>2789403</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="H26" s="7">
         <v>4573</v>
@@ -7525,13 +7504,13 @@
         <v>3258844</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="M26" s="7">
         <v>7377</v>
@@ -7540,13 +7519,13 @@
         <v>6048247</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P27_1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P27_1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{941551EE-0082-4B53-A0F4-F5ADAA69B39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62632C45-B978-40CE-BE95-DF306596021D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A5559B16-7D05-4705-96B0-03FDBDF904EE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0AEAF1FF-8E01-4447-A83C-B23593CE55F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="549">
   <si>
     <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2007 (Tasa respuesta: 94,99%)</t>
   </si>
@@ -1334,361 +1334,358 @@
     <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los días de diario en 2023 (Tasa respuesta: 99,55%)</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>0,96%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>0,86%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F528454-1FDC-474E-8C36-F01283E65315}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD313AFE-2A84-40D0-8759-08FD3D0438BB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2389,7 +2386,7 @@
         <v>692</v>
       </c>
       <c r="I7" s="7">
-        <v>710182</v>
+        <v>710181</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2440,7 +2437,7 @@
         <v>1233</v>
       </c>
       <c r="I8" s="7">
-        <v>1257204</v>
+        <v>1257203</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -3259,7 +3256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE15CA3-4102-4D15-B783-0B9F5D1FAAE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD92D558-FC57-4A1C-A079-0976D594451F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4304,7 +4301,7 @@
         <v>2481</v>
       </c>
       <c r="D22" s="7">
-        <v>2669067</v>
+        <v>2669068</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>290</v>
@@ -4355,7 +4352,7 @@
         <v>3113</v>
       </c>
       <c r="D23" s="7">
-        <v>3324046</v>
+        <v>3324047</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -4418,7 +4415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06796B1A-0E85-4BB8-A504-9FA215F7E734}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859D482A-5C23-4671-BE25-E299D0DF2CFB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4722,7 +4719,7 @@
         <v>1330</v>
       </c>
       <c r="N7" s="7">
-        <v>1401513</v>
+        <v>1401514</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>331</v>
@@ -4773,7 +4770,7 @@
         <v>1598</v>
       </c>
       <c r="N8" s="7">
-        <v>1688106</v>
+        <v>1688107</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -5577,7 +5574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F8E80C-9CFC-4C7B-9AAD-7CBCF67C82CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706783BA-CBCD-439A-A94E-551350E76501}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5698,22 +5695,22 @@
         <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>11487</v>
+        <v>10540</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>431</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>9509</v>
+        <v>8430</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>433</v>
@@ -5728,16 +5725,16 @@
         <v>28</v>
       </c>
       <c r="N4" s="7">
-        <v>20996</v>
+        <v>18970</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,43 +5746,43 @@
         <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>26363</v>
+        <v>26344</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>307</v>
+        <v>438</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>310</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>17576</v>
+        <v>16497</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>440</v>
+        <v>168</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>441</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
         <v>58</v>
       </c>
       <c r="N5" s="7">
-        <v>43939</v>
+        <v>42842</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>442</v>
@@ -5800,7 +5797,7 @@
         <v>56</v>
       </c>
       <c r="D6" s="7">
-        <v>54407</v>
+        <v>56995</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>443</v>
@@ -5815,31 +5812,31 @@
         <v>72</v>
       </c>
       <c r="I6" s="7">
-        <v>47614</v>
+        <v>44794</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>446</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>313</v>
+        <v>447</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="M6" s="7">
         <v>128</v>
       </c>
       <c r="N6" s="7">
-        <v>102020</v>
+        <v>101789</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,10 +5848,10 @@
         <v>592</v>
       </c>
       <c r="D7" s="7">
-        <v>448617</v>
+        <v>420329</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>450</v>
+        <v>258</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>451</v>
@@ -5866,7 +5863,7 @@
         <v>1302</v>
       </c>
       <c r="I7" s="7">
-        <v>754859</v>
+        <v>680076</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>453</v>
@@ -5881,7 +5878,7 @@
         <v>1894</v>
       </c>
       <c r="N7" s="7">
-        <v>1203477</v>
+        <v>1100405</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>456</v>
@@ -5902,7 +5899,7 @@
         <v>690</v>
       </c>
       <c r="D8" s="7">
-        <v>540874</v>
+        <v>514208</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -5917,7 +5914,7 @@
         <v>1418</v>
       </c>
       <c r="I8" s="7">
-        <v>829558</v>
+        <v>749798</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -5932,7 +5929,7 @@
         <v>2108</v>
       </c>
       <c r="N8" s="7">
-        <v>1370432</v>
+        <v>1264006</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -5955,22 +5952,22 @@
         <v>19</v>
       </c>
       <c r="D9" s="7">
-        <v>15488</v>
+        <v>14466</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
       </c>
       <c r="I9" s="7">
-        <v>21573</v>
+        <v>18929</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>461</v>
@@ -5985,7 +5982,7 @@
         <v>42</v>
       </c>
       <c r="N9" s="7">
-        <v>37061</v>
+        <v>33394</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>464</v>
@@ -5994,7 +5991,7 @@
         <v>465</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>466</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,46 +6003,46 @@
         <v>107</v>
       </c>
       <c r="D10" s="7">
-        <v>122479</v>
+        <v>123380</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>468</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
       </c>
       <c r="I10" s="7">
-        <v>104026</v>
+        <v>98668</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>470</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>246</v>
       </c>
       <c r="N10" s="7">
-        <v>226505</v>
+        <v>222048</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>95</v>
+        <v>469</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,46 +6054,46 @@
         <v>241</v>
       </c>
       <c r="D11" s="7">
-        <v>255984</v>
+        <v>272057</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>102</v>
+        <v>471</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>473</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H11" s="7">
         <v>348</v>
       </c>
       <c r="I11" s="7">
-        <v>232393</v>
+        <v>225160</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="M11" s="7">
         <v>589</v>
       </c>
       <c r="N11" s="7">
-        <v>488377</v>
+        <v>497217</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,46 +6105,46 @@
         <v>1619</v>
       </c>
       <c r="D12" s="7">
-        <v>1760640</v>
+        <v>1873190</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="H12" s="7">
         <v>2398</v>
       </c>
       <c r="I12" s="7">
-        <v>1882926</v>
+        <v>1887002</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="M12" s="7">
         <v>4017</v>
       </c>
       <c r="N12" s="7">
-        <v>3643566</v>
+        <v>3760193</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,7 +6156,7 @@
         <v>1986</v>
       </c>
       <c r="D13" s="7">
-        <v>2154591</v>
+        <v>2283092</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -6174,7 +6171,7 @@
         <v>2908</v>
       </c>
       <c r="I13" s="7">
-        <v>2240918</v>
+        <v>2229759</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -6189,7 +6186,7 @@
         <v>4894</v>
       </c>
       <c r="N13" s="7">
-        <v>4395509</v>
+        <v>4512852</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -6212,46 +6209,46 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>3003</v>
+        <v>2764</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>4227</v>
+        <v>3817</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>7229</v>
+        <v>6580</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6263,13 +6260,13 @@
         <v>22</v>
       </c>
       <c r="D15" s="7">
-        <v>24985</v>
+        <v>24637</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>311</v>
+        <v>497</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>497</v>
+        <v>176</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>498</v>
@@ -6278,31 +6275,31 @@
         <v>29</v>
       </c>
       <c r="I15" s="7">
-        <v>22133</v>
+        <v>20099</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>371</v>
-      </c>
       <c r="L15" s="7" t="s">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="M15" s="7">
         <v>51</v>
       </c>
       <c r="N15" s="7">
-        <v>47119</v>
+        <v>44736</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6314,46 +6311,46 @@
         <v>62</v>
       </c>
       <c r="D16" s="7">
-        <v>60209</v>
+        <v>62361</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>503</v>
+        <v>58</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H16" s="7">
         <v>92</v>
       </c>
       <c r="I16" s="7">
-        <v>63303</v>
+        <v>61779</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>506</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>507</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
       </c>
       <c r="N16" s="7">
-        <v>123513</v>
+        <v>124139</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,46 +6362,46 @@
         <v>593</v>
       </c>
       <c r="D17" s="7">
-        <v>580146</v>
+        <v>547901</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="H17" s="7">
         <v>873</v>
       </c>
       <c r="I17" s="7">
-        <v>621058</v>
+        <v>571889</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="M17" s="7">
         <v>1466</v>
       </c>
       <c r="N17" s="7">
-        <v>1201204</v>
+        <v>1119790</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,7 +6413,7 @@
         <v>680</v>
       </c>
       <c r="D18" s="7">
-        <v>668344</v>
+        <v>637662</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -6431,7 +6428,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>710721</v>
+        <v>657584</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -6446,7 +6443,7 @@
         <v>1680</v>
       </c>
       <c r="N18" s="7">
-        <v>1379065</v>
+        <v>1295246</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -6469,46 +6466,46 @@
         <v>37</v>
       </c>
       <c r="D19" s="7">
-        <v>29978</v>
+        <v>27769</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
       </c>
       <c r="I19" s="7">
-        <v>35309</v>
+        <v>31176</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>374</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="M19" s="7">
         <v>79</v>
       </c>
       <c r="N19" s="7">
-        <v>65287</v>
+        <v>58944</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,7 +6517,7 @@
         <v>156</v>
       </c>
       <c r="D20" s="7">
-        <v>173827</v>
+        <v>174361</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>526</v>
@@ -6535,31 +6532,31 @@
         <v>199</v>
       </c>
       <c r="I20" s="7">
-        <v>143735</v>
+        <v>135265</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>355</v>
       </c>
       <c r="N20" s="7">
-        <v>317562</v>
+        <v>309626</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,46 +6568,46 @@
         <v>359</v>
       </c>
       <c r="D21" s="7">
-        <v>370600</v>
+        <v>391413</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="H21" s="7">
         <v>512</v>
       </c>
       <c r="I21" s="7">
-        <v>343310</v>
+        <v>331733</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>538</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>322</v>
+        <v>536</v>
       </c>
       <c r="M21" s="7">
         <v>871</v>
       </c>
       <c r="N21" s="7">
-        <v>713910</v>
+        <v>723146</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,46 +6619,46 @@
         <v>2804</v>
       </c>
       <c r="D22" s="7">
-        <v>2789403</v>
+        <v>2841420</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="H22" s="7">
         <v>4573</v>
       </c>
       <c r="I22" s="7">
-        <v>3258844</v>
+        <v>3138968</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="M22" s="7">
         <v>7377</v>
       </c>
       <c r="N22" s="7">
-        <v>6048247</v>
+        <v>5980387</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,7 +6670,7 @@
         <v>3356</v>
       </c>
       <c r="D23" s="7">
-        <v>3363808</v>
+        <v>3434962</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -6688,7 +6685,7 @@
         <v>5326</v>
       </c>
       <c r="I23" s="7">
-        <v>3781198</v>
+        <v>3637141</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -6703,7 +6700,7 @@
         <v>8682</v>
       </c>
       <c r="N23" s="7">
-        <v>7145006</v>
+        <v>7072103</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
